--- a/01 - Etude/Angle_Pinout_Servo.xlsx
+++ b/01 - Etude/Angle_Pinout_Servo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout_InMoov" sheetId="1" r:id="rId1"/>
@@ -1965,6 +1965,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,72 +2047,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2593,68 +2593,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="96" t="s">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="101" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2689,14 +2689,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="115" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2716,10 +2716,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="20" t="s">
         <v>131</v>
       </c>
@@ -2734,10 +2734,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="94"/>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="20" t="s">
         <v>132</v>
       </c>
@@ -2752,10 +2752,10 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="94"/>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="20" t="s">
         <v>133</v>
       </c>
@@ -2770,10 +2770,10 @@
       <c r="I11" s="23"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="95"/>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="25" t="s">
         <v>134</v>
       </c>
@@ -2788,10 +2788,10 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93" t="s">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="115" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2801,7 +2801,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="98"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="31" t="s">
         <v>165</v>
       </c>
@@ -2810,10 +2810,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="94"/>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="20" t="s">
         <v>136</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="99"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="22" t="s">
         <v>165</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="94"/>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="20" t="s">
         <v>137</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="99"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="22" t="s">
         <v>165</v>
       </c>
@@ -2850,10 +2850,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="94"/>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="20" t="s">
         <v>138</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="99"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="22" t="s">
         <v>165</v>
       </c>
@@ -2870,10 +2870,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="94"/>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="20" t="s">
         <v>139</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="99"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="22" t="s">
         <v>166</v>
       </c>
@@ -2890,10 +2890,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="95"/>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="25" t="s">
         <v>140</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="99"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="27" t="s">
         <v>167</v>
       </c>
@@ -2910,10 +2910,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="93" t="s">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="115" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -2923,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="99"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="31" t="s">
         <v>163</v>
       </c>
@@ -2932,10 +2932,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="94"/>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="20" t="s">
         <v>142</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="99"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="22" t="s">
         <v>53</v>
       </c>
@@ -2954,10 +2954,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="94"/>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="20" t="s">
         <v>143</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>26</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="99"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="22" t="s">
         <v>58</v>
       </c>
@@ -2976,10 +2976,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="95"/>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="25" t="s">
         <v>144</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="99"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="27" t="s">
         <v>160</v>
       </c>
@@ -2996,10 +2996,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="93" t="s">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="115" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="39" t="s">
@@ -3009,17 +3009,17 @@
         <v>29</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="99"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="31"/>
       <c r="I23" s="32">
         <v>95</v>
       </c>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="95"/>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="67" t="s">
         <v>146</v>
       </c>
@@ -3027,21 +3027,21 @@
         <v>30</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="100"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42">
         <v>90</v>
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="93" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="71" t="s">
@@ -3054,10 +3054,10 @@
       <c r="I25" s="14"/>
       <c r="J25" s="50"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="105"/>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="99"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="64" t="s">
         <v>131</v>
       </c>
@@ -3068,10 +3068,10 @@
       <c r="I26" s="64"/>
       <c r="J26" s="68"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="105"/>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="99"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="64" t="s">
         <v>132</v>
       </c>
@@ -3082,10 +3082,10 @@
       <c r="I27" s="64"/>
       <c r="J27" s="68"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="105"/>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="99"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="64" t="s">
         <v>133</v>
       </c>
@@ -3096,10 +3096,10 @@
       <c r="I28" s="64"/>
       <c r="J28" s="68"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="106"/>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="99"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="12" t="s">
         <v>134</v>
       </c>
@@ -3110,10 +3110,10 @@
       <c r="I29" s="12"/>
       <c r="J29" s="52"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="104" t="s">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="99"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="93" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="71" t="s">
@@ -3126,10 +3126,10 @@
       <c r="I30" s="71"/>
       <c r="J30" s="72"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="105"/>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="99"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="64" t="s">
         <v>136</v>
       </c>
@@ -3140,10 +3140,10 @@
       <c r="I31" s="64"/>
       <c r="J31" s="68"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="105"/>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="99"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="64" t="s">
         <v>137</v>
       </c>
@@ -3154,10 +3154,10 @@
       <c r="I32" s="64"/>
       <c r="J32" s="68"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="105"/>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="99"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="64" t="s">
         <v>138</v>
       </c>
@@ -3168,10 +3168,10 @@
       <c r="I33" s="64"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="105"/>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="99"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="64" t="s">
         <v>139</v>
       </c>
@@ -3182,10 +3182,10 @@
       <c r="I34" s="64"/>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="106"/>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="99"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="12" t="s">
         <v>140</v>
       </c>
@@ -3196,10 +3196,10 @@
       <c r="I35" s="12"/>
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="104" t="s">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="99"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="93" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="71" t="s">
@@ -3212,10 +3212,10 @@
       <c r="I36" s="71"/>
       <c r="J36" s="72"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="105"/>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="99"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="64" t="s">
         <v>142</v>
       </c>
@@ -3226,10 +3226,10 @@
       <c r="I37" s="64"/>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="105"/>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="99"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="64" t="s">
         <v>143</v>
       </c>
@@ -3240,10 +3240,10 @@
       <c r="I38" s="64"/>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="114"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="106"/>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="99"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="12" t="s">
         <v>144</v>
       </c>
@@ -3254,10 +3254,10 @@
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="104" t="s">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="99"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="93" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="48" t="s">
@@ -3276,10 +3276,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="106"/>
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="99"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="12" t="s">
         <v>148</v>
       </c>
@@ -3296,10 +3296,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="104" t="s">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="99"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="93" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -3312,10 +3312,10 @@
       <c r="I42" s="14"/>
       <c r="J42" s="50"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="105"/>
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="99"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="12" t="s">
         <v>154</v>
       </c>
@@ -3326,10 +3326,10 @@
       <c r="I43" s="12"/>
       <c r="J43" s="52"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="104" t="s">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="99"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="93" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -3342,10 +3342,10 @@
       <c r="I44" s="71"/>
       <c r="J44" s="72"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="106"/>
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="100"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="12" t="s">
         <v>156</v>
       </c>
@@ -3356,14 +3356,14 @@
       <c r="I45" s="12"/>
       <c r="J45" s="52"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="90" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="76" t="s">
@@ -3373,15 +3373,15 @@
         <v>42</v>
       </c>
       <c r="F46" s="43"/>
-      <c r="G46" s="116"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="76"/>
       <c r="I46" s="43"/>
       <c r="J46" s="77"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="45" t="s">
         <v>150</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="117"/>
+      <c r="G47" s="102"/>
       <c r="H47" s="45" t="s">
         <v>63</v>
       </c>
@@ -3398,9 +3398,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="B48" s="109"/>
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="53" t="s">
         <v>62</v>
       </c>
@@ -3420,6 +3420,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C35"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B25:B45"/>
@@ -3430,17 +3441,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="G13:G24"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:I24">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -3461,22 +3461,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="23" max="23" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="E2" s="119"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>70</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>82</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>83</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>86</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R8" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3578,7 +3578,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R9" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3595,7 +3595,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R10" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3612,7 +3612,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N11" s="81" t="s">
         <v>88</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N12" s="81" t="s">
         <v>87</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="55"/>
       <c r="N13" s="63" t="s">
         <v>85</v>
@@ -3673,7 +3673,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="55"/>
       <c r="N14" s="62" t="s">
         <v>70</v>
@@ -3694,7 +3694,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="56" t="s">
         <v>65</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="63" t="s">
         <v>66</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F17" s="57" t="s">
         <v>67</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F18" s="63" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F19" s="63" t="s">
         <v>69</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="118" t="s">
         <v>70</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F21" s="118"/>
       <c r="N21" s="10"/>
       <c r="S21" s="62" t="s">
@@ -3866,7 +3866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="63" t="s">
         <v>71</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="55"/>
       <c r="N23" s="60" t="s">
         <v>21</v>
@@ -3888,7 +3888,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F24,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3904,7 +3904,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F25,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3920,7 +3920,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F26,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3936,7 +3936,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F27,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3952,7 +3952,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3968,7 +3968,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3984,7 +3984,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F30,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="N30" s="61"/>
     </row>
-    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4010,7 +4010,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="10"/>
       <c r="N32" s="60" t="s">
         <v>91</v>
@@ -4020,7 +4020,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4036,7 +4036,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F34,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4052,7 +4052,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F35,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4068,7 +4068,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F36,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4084,7 +4084,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F37,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4100,7 +4100,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4116,7 +4116,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F39,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F40,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4136,10 +4136,10 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N42" s="10"/>
     </row>
   </sheetData>
@@ -4157,22 +4157,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="23" max="23" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="E2" s="119"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>70</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>82</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>83</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>86</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4274,7 +4274,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4291,7 +4291,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4308,7 +4308,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N11" s="81" t="s">
         <v>88</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N12" s="81" t="s">
         <v>87</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="55"/>
       <c r="N13" s="63" t="s">
         <v>85</v>
@@ -4369,7 +4369,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="55"/>
       <c r="N14" s="84" t="s">
         <v>70</v>
@@ -4390,7 +4390,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="56" t="s">
         <v>65</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="63" t="s">
         <v>66</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F17" s="57" t="s">
         <v>67</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F18" s="63" t="s">
         <v>68</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F19" s="63" t="s">
         <v>69</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="118" t="s">
         <v>70</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F21" s="118"/>
       <c r="N21" s="83"/>
       <c r="O21" s="89"/>
@@ -4563,7 +4563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="63" t="s">
         <v>71</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>SERVO POIGNET</v>
       </c>
     </row>
-    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="55"/>
       <c r="N23" s="60" t="s">
         <v>21</v>
@@ -4585,7 +4585,7 @@
         <v>SERVO AURICULAIRE</v>
       </c>
     </row>
-    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4601,7 +4601,7 @@
         <v>SERVO ANNULAIRE</v>
       </c>
     </row>
-    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4617,7 +4617,7 @@
         <v>SERVO MAJEUR</v>
       </c>
     </row>
-    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4633,7 +4633,7 @@
         <v>SERVO INDEX</v>
       </c>
     </row>
-    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4649,7 +4649,7 @@
         <v>SERVO POUCE</v>
       </c>
     </row>
-    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4665,7 +4665,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4681,7 +4681,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F30,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4692,7 +4692,7 @@
       <c r="N30" s="61"/>
       <c r="O30" s="89"/>
     </row>
-    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4708,7 +4708,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="89"/>
       <c r="F32" s="83"/>
       <c r="N32" s="60" t="s">
@@ -4719,7 +4719,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4735,7 +4735,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4751,7 +4751,7 @@
         <v>SERVO OMOPLATE</v>
       </c>
     </row>
-    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR AURICULAIRE</v>
@@ -4767,7 +4767,7 @@
         <v>SERVO EPAULE</v>
       </c>
     </row>
-    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR ANNULAIRE</v>
@@ -4783,7 +4783,7 @@
         <v>SERVO ROTATION</v>
       </c>
     </row>
-    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR MAJEUR</v>
@@ -4799,7 +4799,7 @@
         <v>SERVO BICEP</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR INDEX</v>
@@ -4815,7 +4815,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F39,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR POUCE</v>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="N39" s="83"/>
     </row>
-    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F40,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4835,10 +4835,10 @@
       </c>
       <c r="N40" s="83"/>
     </row>
-    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N41" s="83"/>
     </row>
-    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N42" s="83"/>
     </row>
   </sheetData>
@@ -4859,23 +4859,23 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>82</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>83</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>86</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4959,7 +4959,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4975,7 +4975,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>VOIX INMOOV</v>
@@ -4991,7 +4991,7 @@
         <v>SERVO BOUCHE</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5007,7 +5007,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5023,7 +5023,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5039,7 +5039,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5055,7 +5055,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I15" s="63" t="s">
         <v>69</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="58" t="s">
         <v>67</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I17" s="84" t="s">
         <v>70</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I18" s="63" t="s">
         <v>71</v>
       </c>

--- a/01 - Etude/Angle_Pinout_Servo.xlsx
+++ b/01 - Etude/Angle_Pinout_Servo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout_InMoov" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
   </si>
   <si>
     <r>
-      <t>30°</t>
+      <t>40°</t>
     </r>
     <r>
       <rPr>
@@ -858,7 +858,55 @@
   </si>
   <si>
     <r>
-      <t>40°</t>
+      <t>25°</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(vers l'exterieur)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>170°</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(fermé)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100°</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(vers l'interieur)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10°</t>
     </r>
     <r>
       <rPr>
@@ -874,23 +922,7 @@
   </si>
   <si>
     <r>
-      <t>25°</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(vers l'exterieur)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>160°</t>
+      <t>150°</t>
     </r>
     <r>
       <rPr>
@@ -902,38 +934,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(fermé)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>170°</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(fermé)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100°</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(vers l'interieur)</t>
     </r>
   </si>
 </sst>
@@ -1965,6 +1965,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1974,12 +2025,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,51 +2047,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2593,68 +2593,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="35.5546875" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="104" t="s">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="109" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2689,14 +2689,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2716,10 +2716,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="116"/>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="20" t="s">
         <v>131</v>
       </c>
@@ -2734,10 +2734,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="116"/>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="20" t="s">
         <v>132</v>
       </c>
@@ -2752,10 +2752,10 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="116"/>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="20" t="s">
         <v>133</v>
       </c>
@@ -2770,10 +2770,10 @@
       <c r="I11" s="23"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="117"/>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="25" t="s">
         <v>134</v>
       </c>
@@ -2788,10 +2788,10 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="115" t="s">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2801,19 +2801,19 @@
         <v>17</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="106"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="116"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="20" t="s">
         <v>136</v>
       </c>
@@ -2821,19 +2821,19 @@
         <v>18</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="22" t="s">
-        <v>165</v>
+      <c r="G14" s="99"/>
+      <c r="H14" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="116"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="20" t="s">
         <v>137</v>
       </c>
@@ -2841,19 +2841,19 @@
         <v>19</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="22" t="s">
-        <v>165</v>
+      <c r="G15" s="99"/>
+      <c r="H15" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="116"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="20" t="s">
         <v>138</v>
       </c>
@@ -2861,19 +2861,19 @@
         <v>20</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="22" t="s">
-        <v>165</v>
+      <c r="G16" s="99"/>
+      <c r="H16" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="116"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="20" t="s">
         <v>139</v>
       </c>
@@ -2881,19 +2881,19 @@
         <v>21</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="107"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="117"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="25" t="s">
         <v>140</v>
       </c>
@@ -2901,19 +2901,19 @@
         <v>22</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="107"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="93" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -2923,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="107"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="31" t="s">
         <v>163</v>
       </c>
@@ -2932,10 +2932,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="116"/>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="20" t="s">
         <v>142</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="107"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="22" t="s">
         <v>53</v>
       </c>
@@ -2954,10 +2954,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="116"/>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="20" t="s">
         <v>143</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>26</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="107"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="22" t="s">
         <v>58</v>
       </c>
@@ -2976,10 +2976,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="117"/>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="25" t="s">
         <v>144</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="27" t="s">
         <v>160</v>
       </c>
@@ -2996,10 +2996,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="115" t="s">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="39" t="s">
@@ -3009,17 +3009,17 @@
         <v>29</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="107"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="31"/>
       <c r="I23" s="32">
         <v>95</v>
       </c>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="117"/>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="67" t="s">
         <v>146</v>
       </c>
@@ -3027,21 +3027,21 @@
         <v>30</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="108"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42">
         <v>90</v>
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98" t="s">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="104" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="71" t="s">
@@ -3054,10 +3054,10 @@
       <c r="I25" s="14"/>
       <c r="J25" s="50"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="103"/>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="114"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="64" t="s">
         <v>131</v>
       </c>
@@ -3068,10 +3068,10 @@
       <c r="I26" s="64"/>
       <c r="J26" s="68"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="103"/>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="114"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="64" t="s">
         <v>132</v>
       </c>
@@ -3082,10 +3082,10 @@
       <c r="I27" s="64"/>
       <c r="J27" s="68"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="103"/>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="114"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="64" t="s">
         <v>133</v>
       </c>
@@ -3096,10 +3096,10 @@
       <c r="I28" s="64"/>
       <c r="J28" s="68"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="94"/>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="114"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="12" t="s">
         <v>134</v>
       </c>
@@ -3110,10 +3110,10 @@
       <c r="I29" s="12"/>
       <c r="J29" s="52"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="93" t="s">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="114"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="104" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="71" t="s">
@@ -3126,10 +3126,10 @@
       <c r="I30" s="71"/>
       <c r="J30" s="72"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="103"/>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="114"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="64" t="s">
         <v>136</v>
       </c>
@@ -3140,10 +3140,10 @@
       <c r="I31" s="64"/>
       <c r="J31" s="68"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="103"/>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="114"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="64" t="s">
         <v>137</v>
       </c>
@@ -3154,10 +3154,10 @@
       <c r="I32" s="64"/>
       <c r="J32" s="68"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="103"/>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="114"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="64" t="s">
         <v>138</v>
       </c>
@@ -3168,10 +3168,10 @@
       <c r="I33" s="64"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="99"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="103"/>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="114"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="64" t="s">
         <v>139</v>
       </c>
@@ -3182,10 +3182,10 @@
       <c r="I34" s="64"/>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="94"/>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="114"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="12" t="s">
         <v>140</v>
       </c>
@@ -3196,10 +3196,10 @@
       <c r="I35" s="12"/>
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="93" t="s">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="114"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="104" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="71" t="s">
@@ -3212,10 +3212,10 @@
       <c r="I36" s="71"/>
       <c r="J36" s="72"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="103"/>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="114"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="64" t="s">
         <v>142</v>
       </c>
@@ -3226,10 +3226,10 @@
       <c r="I37" s="64"/>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="103"/>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="114"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="64" t="s">
         <v>143</v>
       </c>
@@ -3240,10 +3240,10 @@
       <c r="I38" s="64"/>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="94"/>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="114"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="12" t="s">
         <v>144</v>
       </c>
@@ -3254,10 +3254,10 @@
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="93" t="s">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="114"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="104" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="48" t="s">
@@ -3276,10 +3276,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="99"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="94"/>
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="114"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="12" t="s">
         <v>148</v>
       </c>
@@ -3296,10 +3296,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="93" t="s">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="114"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -3312,10 +3312,10 @@
       <c r="I42" s="14"/>
       <c r="J42" s="50"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="99"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="103"/>
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="114"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="12" t="s">
         <v>154</v>
       </c>
@@ -3326,10 +3326,10 @@
       <c r="I43" s="12"/>
       <c r="J43" s="52"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="93" t="s">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="114"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="104" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -3342,10 +3342,10 @@
       <c r="I44" s="71"/>
       <c r="J44" s="72"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="100"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="94"/>
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="12" t="s">
         <v>156</v>
       </c>
@@ -3356,14 +3356,14 @@
       <c r="I45" s="12"/>
       <c r="J45" s="52"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="90" t="s">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="107" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="76" t="s">
@@ -3373,15 +3373,15 @@
         <v>42</v>
       </c>
       <c r="F46" s="43"/>
-      <c r="G46" s="101"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="76"/>
       <c r="I46" s="43"/>
       <c r="J46" s="77"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="91"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="92"/>
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="45" t="s">
         <v>150</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="102"/>
+      <c r="G47" s="117"/>
       <c r="H47" s="45" t="s">
         <v>63</v>
       </c>
@@ -3398,9 +3398,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="109"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="53" t="s">
         <v>62</v>
       </c>
@@ -3420,17 +3420,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="G13:G24"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C35"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B25:B45"/>
@@ -3441,6 +3430,17 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:I24">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -3465,18 +3465,18 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="E2" s="119"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>70</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>82</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>83</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>86</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R8" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3578,7 +3578,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R9" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3595,7 +3595,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R10" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3612,7 +3612,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="81" t="s">
         <v>88</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N12" s="81" t="s">
         <v>87</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="55"/>
       <c r="N13" s="63" t="s">
         <v>85</v>
@@ -3673,7 +3673,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="55"/>
       <c r="N14" s="62" t="s">
         <v>70</v>
@@ -3694,7 +3694,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="56" t="s">
         <v>65</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="63" t="s">
         <v>66</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="57" t="s">
         <v>67</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="63" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="63" t="s">
         <v>69</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="118" t="s">
         <v>70</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="118"/>
       <c r="N21" s="10"/>
       <c r="S21" s="62" t="s">
@@ -3866,7 +3866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="63" t="s">
         <v>71</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="55"/>
       <c r="N23" s="60" t="s">
         <v>21</v>
@@ -3888,7 +3888,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F24,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3904,7 +3904,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F25,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3920,7 +3920,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F26,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3936,7 +3936,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F27,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3952,7 +3952,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3968,7 +3968,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3984,7 +3984,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F30,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="N30" s="61"/>
     </row>
-    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4010,7 +4010,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="10"/>
       <c r="N32" s="60" t="s">
         <v>91</v>
@@ -4020,7 +4020,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4036,7 +4036,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F34,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4052,7 +4052,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F35,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4068,7 +4068,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F36,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4084,7 +4084,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F37,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4100,7 +4100,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4116,7 +4116,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F39,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="80" t="str">
         <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F40,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4136,10 +4136,10 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N42" s="10"/>
     </row>
   </sheetData>
@@ -4157,22 +4157,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="E2" s="119"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>70</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>82</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>83</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>86</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4274,7 +4274,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4291,7 +4291,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4308,7 +4308,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="81" t="s">
         <v>88</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N12" s="81" t="s">
         <v>87</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="55"/>
       <c r="N13" s="63" t="s">
         <v>85</v>
@@ -4369,7 +4369,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="55"/>
       <c r="N14" s="84" t="s">
         <v>70</v>
@@ -4390,7 +4390,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="56" t="s">
         <v>65</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="63" t="s">
         <v>66</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="57" t="s">
         <v>67</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="63" t="s">
         <v>68</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="63" t="s">
         <v>69</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="118" t="s">
         <v>70</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="118"/>
       <c r="N21" s="83"/>
       <c r="O21" s="89"/>
@@ -4563,7 +4563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="63" t="s">
         <v>71</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>SERVO POIGNET</v>
       </c>
     </row>
-    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="55"/>
       <c r="N23" s="60" t="s">
         <v>21</v>
@@ -4585,7 +4585,7 @@
         <v>SERVO AURICULAIRE</v>
       </c>
     </row>
-    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4601,7 +4601,7 @@
         <v>SERVO ANNULAIRE</v>
       </c>
     </row>
-    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4617,7 +4617,7 @@
         <v>SERVO MAJEUR</v>
       </c>
     </row>
-    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4633,7 +4633,7 @@
         <v>SERVO INDEX</v>
       </c>
     </row>
-    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4649,7 +4649,7 @@
         <v>SERVO POUCE</v>
       </c>
     </row>
-    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4665,7 +4665,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4681,7 +4681,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F30,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4692,7 +4692,7 @@
       <c r="N30" s="61"/>
       <c r="O30" s="89"/>
     </row>
-    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4708,7 +4708,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="89"/>
       <c r="F32" s="83"/>
       <c r="N32" s="60" t="s">
@@ -4719,7 +4719,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4735,7 +4735,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4751,7 +4751,7 @@
         <v>SERVO OMOPLATE</v>
       </c>
     </row>
-    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR AURICULAIRE</v>
@@ -4767,7 +4767,7 @@
         <v>SERVO EPAULE</v>
       </c>
     </row>
-    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR ANNULAIRE</v>
@@ -4783,7 +4783,7 @@
         <v>SERVO ROTATION</v>
       </c>
     </row>
-    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR MAJEUR</v>
@@ -4799,7 +4799,7 @@
         <v>SERVO BICEP</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR INDEX</v>
@@ -4815,7 +4815,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F39,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR POUCE</v>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="N39" s="83"/>
     </row>
-    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F40,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4835,10 +4835,10 @@
       </c>
       <c r="N40" s="83"/>
     </row>
-    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N41" s="83"/>
     </row>
-    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N42" s="83"/>
     </row>
   </sheetData>
@@ -4859,23 +4859,23 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>82</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>83</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>86</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4959,7 +4959,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -4975,7 +4975,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>VOIX INMOOV</v>
@@ -4991,7 +4991,7 @@
         <v>SERVO BOUCHE</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5007,7 +5007,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5023,7 +5023,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5039,7 +5039,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
@@ -5055,7 +5055,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="63" t="s">
         <v>69</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="58" t="s">
         <v>67</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="84" t="s">
         <v>70</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>LIBRE</v>
       </c>
     </row>
-    <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="63" t="s">
         <v>71</v>
       </c>

--- a/01 - Etude/Angle_Pinout_Servo.xlsx
+++ b/01 - Etude/Angle_Pinout_Servo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="179">
   <si>
     <t>Pinout InMoov Quentin</t>
   </si>
@@ -108,9 +108,6 @@
     <t>D17</t>
   </si>
   <si>
-    <t>Neck Droit</t>
-  </si>
-  <si>
     <t>D13</t>
   </si>
   <si>
@@ -120,15 +117,6 @@
     <t>Res: 1K</t>
   </si>
   <si>
-    <t>Res: 10K</t>
-  </si>
-  <si>
-    <t>Res: 15K</t>
-  </si>
-  <si>
-    <t>Res: 100K</t>
-  </si>
-  <si>
     <t>Val min</t>
   </si>
   <si>
@@ -162,16 +150,10 @@
     <t>Capteur doigts Gauche</t>
   </si>
   <si>
-    <t>Ultrason x2</t>
-  </si>
-  <si>
     <t>Servo Main Gauche</t>
   </si>
   <si>
     <t>Servo Bras Gauche</t>
-  </si>
-  <si>
-    <t>Neck Gauche</t>
   </si>
   <si>
     <t>EYES</t>
@@ -675,9 +657,6 @@
     <t>ARTICULATING NECK</t>
   </si>
   <si>
-    <t>NECK ROTATION</t>
-  </si>
-  <si>
     <t>VOIX INMOOV</t>
   </si>
   <si>
@@ -842,22 +821,6 @@
   </si>
   <si>
     <r>
-      <t>40°</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ouvert)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>25°</t>
     </r>
     <r>
@@ -890,22 +853,6 @@
   </si>
   <si>
     <r>
-      <t>100°</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(vers l'interieur)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>10°</t>
     </r>
     <r>
@@ -936,13 +883,78 @@
       <t>(fermé)</t>
     </r>
   </si>
+  <si>
+    <t>Capteurs</t>
+  </si>
+  <si>
+    <t>Kinect</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>Calculs de puissance</t>
+  </si>
+  <si>
+    <t>Ampèrage Min</t>
+  </si>
+  <si>
+    <t>Ampérage Max</t>
+  </si>
+  <si>
+    <t>Capteur Hall (AH3503)</t>
+  </si>
+  <si>
+    <t>Capteur Hall(AH3503)</t>
+  </si>
+  <si>
+    <t>Tension (V)</t>
+  </si>
+  <si>
+    <t>Analogique</t>
+  </si>
+  <si>
+    <t>Puissance de tirage</t>
+  </si>
+  <si>
+    <t>10 Kg/cm</t>
+  </si>
+  <si>
+    <t>21 Kg/cm</t>
+  </si>
+  <si>
+    <t>60 Kg /cm</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>HEAD ROTATION</t>
+  </si>
+  <si>
+    <r>
+      <t>110°</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(vers l'interieur)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00\°"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1010,7 +1022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,8 +1083,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1195,19 +1213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1285,19 +1290,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1381,32 +1373,8 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1694,11 +1662,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,151 +1959,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1890,49 +2086,40 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1950,13 +2137,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1965,88 +2152,308 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2591,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M48"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E55" sqref="E54:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2605,56 +3012,65 @@
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="35.5703125" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="96" t="s">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" s="160"/>
+      <c r="N6" s="158"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2671,783 +3087,1323 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="77">
+        <v>5</v>
+      </c>
+      <c r="M8" s="76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="168"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="78">
+        <v>5</v>
+      </c>
+      <c r="M9" s="76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="168"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="78">
+        <v>5</v>
+      </c>
+      <c r="M10" s="76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N10" s="76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="168"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="78">
+        <v>5</v>
+      </c>
+      <c r="M11" s="76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="168"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="92">
+        <v>5</v>
+      </c>
+      <c r="M12" s="93">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N12" s="93">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="168"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="154"/>
+      <c r="H13" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="94">
+        <v>5</v>
+      </c>
+      <c r="M13" s="107">
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="107">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="168"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="155"/>
+      <c r="H14" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="77">
+        <v>5</v>
+      </c>
+      <c r="M14" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="168"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="155"/>
+      <c r="H15" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="77">
+        <v>5</v>
+      </c>
+      <c r="M15" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="155"/>
+      <c r="H16" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="77">
+        <v>5</v>
+      </c>
+      <c r="M16" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="168"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="155"/>
+      <c r="H17" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="77">
+        <v>5</v>
+      </c>
+      <c r="M17" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="N17" s="76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="168"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="155"/>
+      <c r="H18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="96">
+        <v>5</v>
+      </c>
+      <c r="M18" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="108">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="168"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="155"/>
+      <c r="H19" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="77">
+        <v>6</v>
+      </c>
+      <c r="M19" s="76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N19" s="76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="155"/>
+      <c r="H20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="77">
+        <v>6</v>
+      </c>
+      <c r="M20" s="76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N20" s="76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="168"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="155"/>
+      <c r="H21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="100">
+        <v>7</v>
+      </c>
+      <c r="M21" s="76">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N21" s="76">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="168"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="155"/>
+      <c r="H22" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="114">
+        <v>7</v>
+      </c>
+      <c r="M22" s="93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N22" s="93">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="168"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="161" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="155"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="99">
+        <v>95</v>
+      </c>
+      <c r="J23" s="138"/>
+      <c r="K23" s="136" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="100">
+        <v>5</v>
+      </c>
+      <c r="M23" s="137">
+        <v>0.01</v>
+      </c>
+      <c r="N23" s="107">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="168"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="155"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="77">
+        <v>5</v>
+      </c>
+      <c r="M24" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="131"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="133"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="131"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="20">
+        <v>90</v>
+      </c>
+      <c r="J26" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="133"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="C27" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="110">
+        <v>5</v>
+      </c>
+      <c r="M27" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N27" s="80">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="173"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="111">
+        <v>5</v>
+      </c>
+      <c r="M28" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N28" s="80">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="173"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="111">
+        <v>5</v>
+      </c>
+      <c r="M29" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N29" s="80">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="173"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="111">
+        <v>5</v>
+      </c>
+      <c r="M30" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N30" s="80">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="173"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="112">
+        <v>5</v>
+      </c>
+      <c r="M31" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N31" s="80">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="173"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="110">
+        <v>5</v>
+      </c>
+      <c r="M32" s="79">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="173"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="111">
+        <v>5</v>
+      </c>
+      <c r="M33" s="79">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="173"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="111">
+        <v>5</v>
+      </c>
+      <c r="M34" s="79">
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="173"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="111">
+        <v>5</v>
+      </c>
+      <c r="M35" s="79">
+        <v>0.01</v>
+      </c>
+      <c r="N35" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="173"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="111">
+        <v>5</v>
+      </c>
+      <c r="M36" s="79">
+        <v>0.01</v>
+      </c>
+      <c r="N36" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="173"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="112">
+        <v>5</v>
+      </c>
+      <c r="M37" s="79">
+        <v>0.01</v>
+      </c>
+      <c r="N37" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="173"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" s="113">
+        <v>6</v>
+      </c>
+      <c r="M38" s="79">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N38" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="173"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="87">
+        <v>6</v>
+      </c>
+      <c r="M39" s="79">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N39" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="173"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="123" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" s="127">
+        <v>7</v>
+      </c>
+      <c r="M40" s="128">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N40" s="128">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="173"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" s="127">
+        <v>7</v>
+      </c>
+      <c r="M41" s="128">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N41" s="128">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="173"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="173"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="173"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="174"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="B46" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="M8" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="C46" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="144"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="88"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="147"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="31" t="s">
+      <c r="F47" s="60"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="49"/>
+      <c r="J47" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="90"/>
+      <c r="L47" s="88"/>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="151"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="84"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="88"/>
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="88"/>
+    </row>
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="165"/>
+      <c r="B50" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="36" t="s">
+      <c r="C50" s="86" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32">
-        <v>95</v>
-      </c>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42">
-        <v>90</v>
-      </c>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="50"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="68"/>
-    </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="68"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="68"/>
-    </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="68"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="68"/>
-    </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="68"/>
-    </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="68"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="52"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="68"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="68"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="114"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
-    </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="13">
-        <v>90</v>
-      </c>
-      <c r="J41" s="52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="50"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="52"/>
-    </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="52"/>
-    </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="77"/>
-    </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="66"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="11"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="88"/>
+    </row>
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="166"/>
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="109">
+        <f>SUM(M8:M45)</f>
+        <v>0.22200000000000009</v>
+      </c>
+      <c r="N56" s="109">
+        <f>SUM(N8:N45)</f>
+        <v>65.680000000000035</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B25:B45"/>
-    <mergeCell ref="A25:A45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="G13:G24"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C35"/>
+  <mergeCells count="22">
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A8:A24"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B8:B24"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B27:B45"/>
+    <mergeCell ref="A27:A45"/>
+    <mergeCell ref="E2:M4"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
   </mergeCells>
-  <conditionalFormatting sqref="I8:I24">
+  <conditionalFormatting sqref="I8:I23">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>"AND($H$8:$H$24&gt;=85,$H$8:$H$24&lt;=95)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I48 J48 H48">
+  <conditionalFormatting sqref="I47:I48 J48:K48 H48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"AND($H$8:$H$24&gt;=85,$H$8:$H$24&lt;=95)"</formula>
     </cfRule>
@@ -3461,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M54" sqref="M48:U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3477,670 +4433,670 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="176"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S5,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="63"/>
+      <c r="V5" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V5,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S6,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="63"/>
+      <c r="V6" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V6,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S7,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S7" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" s="63"/>
+      <c r="V7" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V7,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S8,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="63"/>
+      <c r="V8" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="W8" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V8,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S9,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="63"/>
+      <c r="V9" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="W9" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V9,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S10,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="63"/>
+      <c r="V10" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="W10" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V10,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S11,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="63"/>
+      <c r="V11" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="W11" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V11,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S12,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="63"/>
+      <c r="V12" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V12,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="39"/>
+      <c r="N13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S13,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="63"/>
+      <c r="V13" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="W13" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V13,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="39"/>
+      <c r="N14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S14,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S14" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" s="63"/>
+      <c r="V14" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="W14" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V14,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N15=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N15,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R15" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S15=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S15,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="T15" s="63"/>
+      <c r="V15" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V15,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N16=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N16,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R16" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S16=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S16,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="T16" s="63"/>
+      <c r="V16" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V16,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N17,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R17" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S17=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S17,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" s="63"/>
+      <c r="V17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="W17" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V17,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N18,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R18" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S18=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S18,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18" s="63"/>
+      <c r="V18" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V18,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N19=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N19,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R19" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S19=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S19,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="T19" s="63"/>
+      <c r="V19" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V19,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N20,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R20" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(S20=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(S20,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="63"/>
+      <c r="V20" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="W20" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(V20,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="175"/>
+      <c r="N21" s="7"/>
+      <c r="S21" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N22=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N22,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="39"/>
+      <c r="N23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N23=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N23,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F24,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N24=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N24,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F25,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N25=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N25,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F26,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N26=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N26,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F27,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N27=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N27,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F28,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N28,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F29,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N29,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F30,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="45"/>
+    </row>
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F31,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="119"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S5,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="82"/>
-      <c r="V5" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="W5" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V5,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="O31" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N31,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+      <c r="N32" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N32,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F33,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N33,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F34,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N34=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N34,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F35,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N35=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N35,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F36,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N36=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N36,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F37,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N37=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N37,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F38,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S6,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="82"/>
-      <c r="V6" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="W6" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V6,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S7,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S7" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="T7" s="82"/>
-      <c r="V7" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="W7" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V7,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R8" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" s="82"/>
-      <c r="V8" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="W8" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R9" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="T9" s="82"/>
-      <c r="V9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="W9" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R10" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="T10" s="82"/>
-      <c r="V10" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="W10" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N11" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S11,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="T11" s="82"/>
-      <c r="V11" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V11,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S12,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="82"/>
-      <c r="V12" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V12,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="55"/>
-      <c r="N13" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S13,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S13" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" s="82"/>
-      <c r="V13" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="W13" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V13,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="55"/>
-      <c r="N14" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S14,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="82"/>
-      <c r="V14" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="W14" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V14,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="R15" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S15" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" s="82"/>
-      <c r="V15" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="W15" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="R16" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="T16" s="82"/>
-      <c r="V16" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="W16" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="R17" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S17" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="82"/>
-      <c r="V17" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="W17" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="R18" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="T18" s="82"/>
-      <c r="V18" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="R19" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S19" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="T19" s="82"/>
-      <c r="V19" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="W19" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="R20" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(S20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S20" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="T20" s="82"/>
-      <c r="V20" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="W20" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="118"/>
-      <c r="N21" s="10"/>
-      <c r="S21" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="V21" s="62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N22=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N22,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="55"/>
-      <c r="N23" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N23=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N23,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F24,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N24=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N24,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F25,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N25=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N25,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F26,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="N26" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N26=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N26,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F27,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N27=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N27,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F28" s="59" t="s">
+      <c r="O38" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(N38,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F39,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="61" t="str">
+        <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$27:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$27:$E$45,MATCH(F40,Pinout_InMoov!$E$27:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N28" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="O28" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="O29" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F30,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" s="61"/>
-    </row>
-    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="N31" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="10"/>
-      <c r="N32" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N32,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F34,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F34" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N34=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N34,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F35,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N35=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N35,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F36,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F36" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N36=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N36,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F37,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N37=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N37,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="N38" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F39,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="80" t="str">
-        <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F40,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="F40" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="N40" s="10"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N41" s="10"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N42" s="10"/>
+      <c r="N42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4157,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="D25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,673 +5129,673 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="119"/>
+      <c r="A2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="176" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="176"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>67</v>
+      <c r="A3" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="63" t="s">
-        <v>69</v>
+      <c r="A4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="63"/>
+      <c r="V5" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="63"/>
+      <c r="V6" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S7" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" s="63"/>
+      <c r="V7" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="63"/>
+      <c r="V8" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="W8" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="63"/>
+      <c r="V9" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="W9" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="63"/>
+      <c r="V10" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="W10" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S5" s="60" t="s">
+      <c r="R11" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S11" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="82"/>
-      <c r="V5" s="60" t="s">
+      <c r="T11" s="63"/>
+      <c r="V11" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="W5" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S6" s="60" t="s">
+      <c r="W11" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S12" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="82"/>
-      <c r="V6" s="60" t="s">
+      <c r="T12" s="63"/>
+      <c r="V12" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="W6" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S7" s="60" t="s">
+      <c r="W12" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="39"/>
+      <c r="N13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S13" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="82"/>
-      <c r="V7" s="60" t="s">
+      <c r="T13" s="63"/>
+      <c r="V13" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R8" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S8" s="60" t="s">
+      <c r="W13" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="39"/>
+      <c r="N14" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="69" t="str">
+        <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S14" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="82"/>
-      <c r="V8" s="60" t="s">
+      <c r="T14" s="63"/>
+      <c r="V14" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="W8" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R9" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="T9" s="82"/>
-      <c r="V9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="W9" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R10" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="T10" s="82"/>
-      <c r="V10" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="W10" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N11" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="T11" s="82"/>
-      <c r="V11" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="82"/>
-      <c r="V12" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="55"/>
-      <c r="N13" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S13" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" s="82"/>
-      <c r="V13" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="W13" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="55"/>
-      <c r="N14" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="88" t="str">
-        <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
-        <v>LIBRE</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="82"/>
-      <c r="V14" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="W14" s="88" t="str">
+      <c r="W14" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="88" t="str">
+      <c r="F15" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>ROLLING NECK LEFT</v>
       </c>
-      <c r="R15" s="88" t="str">
+      <c r="R15" s="69" t="str">
         <f>IF(SUMPRODUCT(--(S15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="S15" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" s="82"/>
-      <c r="V15" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="W15" s="88" t="str">
+      <c r="S15" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="T15" s="63"/>
+      <c r="V15" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="88" t="str">
+      <c r="F16" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>ROLLING NECK RIGHT</v>
       </c>
-      <c r="R16" s="88" t="str">
+      <c r="R16" s="69" t="str">
         <f>IF(SUMPRODUCT(--(S16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="S16" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="T16" s="82"/>
-      <c r="V16" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="W16" s="88" t="str">
+      <c r="S16" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="T16" s="63"/>
+      <c r="V16" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="88" t="str">
+      <c r="F17" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R17" s="88" t="str">
+      <c r="R17" s="69" t="str">
         <f>IF(SUMPRODUCT(--(S17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="S17" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="82"/>
-      <c r="V17" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="W17" s="88" t="str">
+      <c r="S17" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" s="63"/>
+      <c r="V17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="W17" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="88" t="str">
+      <c r="F18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R18" s="88" t="str">
+      <c r="R18" s="69" t="str">
         <f>IF(SUMPRODUCT(--(S18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="S18" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="T18" s="82"/>
-      <c r="V18" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="88" t="str">
+      <c r="S18" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18" s="63"/>
+      <c r="V18" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="88" t="str">
+      <c r="F19" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R19" s="88" t="str">
+      <c r="R19" s="69" t="str">
         <f>IF(SUMPRODUCT(--(S19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="S19" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="T19" s="82"/>
-      <c r="V19" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="W19" s="88" t="str">
+      <c r="S19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="T19" s="63"/>
+      <c r="V19" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="88" t="str">
+      <c r="F20" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R20" s="88" t="str">
+      <c r="R20" s="69" t="str">
         <f>IF(SUMPRODUCT(--(S20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="S20" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="T20" s="82"/>
-      <c r="V20" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="W20" s="88" t="str">
+      <c r="S20" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="63"/>
+      <c r="V20" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="W20" s="69" t="str">
         <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="118"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="89"/>
-      <c r="S21" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="V21" s="84" t="s">
-        <v>70</v>
+      <c r="F21" s="175"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="70"/>
+      <c r="S21" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="65" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="60" t="s">
+      <c r="F22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="88" t="str">
+      <c r="O22" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N22=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N22,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO POIGNET</v>
       </c>
     </row>
     <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="55"/>
-      <c r="N23" s="60" t="s">
+      <c r="F23" s="39"/>
+      <c r="N23" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="88" t="str">
+      <c r="O23" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N23=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N23,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO AURICULAIRE</v>
       </c>
     </row>
     <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="88" t="str">
+      <c r="E24" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F24" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="60" t="s">
+      <c r="F24" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="88" t="str">
+      <c r="O24" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO ANNULAIRE</v>
       </c>
     </row>
     <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="88" t="str">
+      <c r="E25" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F25" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="60" t="s">
+      <c r="F25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="88" t="str">
+      <c r="O25" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO MAJEUR</v>
       </c>
     </row>
     <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="88" t="str">
+      <c r="E26" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F26" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="N26" s="60" t="s">
+      <c r="F26" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="88" t="str">
+      <c r="O26" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO INDEX</v>
       </c>
     </row>
     <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="88" t="str">
+      <c r="E27" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F27" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="60" t="s">
+      <c r="F27" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="88" t="str">
+      <c r="O27" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO POUCE</v>
       </c>
     </row>
     <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="88" t="str">
+      <c r="E28" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F28" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="O28" s="88" t="str">
+      <c r="F28" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="88" t="str">
+      <c r="E29" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F29" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="O29" s="88" t="str">
+      <c r="F29" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="88" t="str">
+      <c r="E30" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F30,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F30" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="89"/>
+      <c r="F30" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="45"/>
+      <c r="O30" s="70"/>
     </row>
     <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="88" t="str">
+      <c r="E31" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F31" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="N31" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="88" t="str">
+      <c r="F31" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="89"/>
-      <c r="F32" s="83"/>
-      <c r="N32" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="88" t="str">
+      <c r="E32" s="70"/>
+      <c r="F32" s="64"/>
+      <c r="N32" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N32,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="88" t="str">
+      <c r="E33" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F33" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="88" t="str">
+      <c r="F33" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="88" t="str">
+      <c r="E34" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F34" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" s="60" t="s">
+      <c r="F34" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="88" t="str">
+      <c r="O34" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO OMOPLATE</v>
       </c>
     </row>
     <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="88" t="str">
+      <c r="E35" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR AURICULAIRE</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N35" s="60" t="s">
+      <c r="N35" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="88" t="str">
+      <c r="O35" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO EPAULE</v>
       </c>
     </row>
     <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="88" t="str">
+      <c r="E36" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR ANNULAIRE</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="60" t="s">
+      <c r="N36" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="88" t="str">
+      <c r="O36" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO ROTATION</v>
       </c>
     </row>
     <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="88" t="str">
+      <c r="E37" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR MAJEUR</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="60" t="s">
+      <c r="N37" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="88" t="str">
+      <c r="O37" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO BICEP</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="88" t="str">
+      <c r="E38" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR INDEX</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N38" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="88" t="str">
+      <c r="N38" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="69" t="str">
         <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="88" t="str">
+      <c r="E39" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F39,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR POUCE</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N39" s="83"/>
+      <c r="N39" s="64"/>
     </row>
     <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="88" t="str">
+      <c r="E40" s="69" t="str">
         <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F40,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="F40" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="N40" s="83"/>
+      <c r="F40" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="64"/>
     </row>
     <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N41" s="83"/>
+      <c r="N41" s="64"/>
     </row>
     <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N42" s="83"/>
+      <c r="N42" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4866,231 +5822,231 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>84</v>
+      <c r="A2" s="47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>67</v>
+      <c r="A3" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="88" t="str">
+      <c r="A4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I4=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I4,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="88" t="str">
+      <c r="N4" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M4=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M4,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" s="88" t="str">
+      <c r="A5" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M5=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M5,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="88" t="str">
+      <c r="A6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M6=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M6,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="88" t="str">
+      <c r="A7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I7=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I7,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="88" t="str">
+      <c r="I7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M7=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M7,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="88" t="str">
+      <c r="H8" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I8" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="88" t="str">
+      <c r="I8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="88" t="str">
+      <c r="H9" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="60" t="s">
+      <c r="I9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="88" t="str">
+      <c r="N9" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="88" t="str">
+      <c r="H10" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>VOIX INMOOV</v>
       </c>
-      <c r="I10" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="60" t="s">
+      <c r="I10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="88" t="str">
+      <c r="N10" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>SERVO BOUCHE</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="88" t="str">
+      <c r="H11" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="60" t="s">
+      <c r="I11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="88" t="str">
+      <c r="N11" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="88" t="str">
+      <c r="H12" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="60" t="s">
+      <c r="I12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="88" t="str">
+      <c r="N12" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="88" t="str">
+      <c r="H13" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I13" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="60" t="s">
+      <c r="I13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="88" t="str">
+      <c r="N13" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="88" t="str">
+      <c r="H14" s="69" t="str">
         <f>IF(SUMPRODUCT(--(I14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="I14" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="60" t="s">
+      <c r="I14" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="88" t="str">
+      <c r="N14" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="84" t="s">
-        <v>70</v>
+      <c r="I15" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="65" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>67</v>
+      <c r="I16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="88" t="str">
+      <c r="I17" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M17=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M17,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="88" t="str">
+      <c r="I18" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="69" t="str">
         <f>IF(SUMPRODUCT(--(M18=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M18,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
